--- a/storage/test.xlsx
+++ b/storage/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/usr/local/var/www/xpx-tannaier/storage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B9F83563-B18A-9B43-8079-A3C288BDBAF2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F4C91FFA-3B58-C44C-B79A-3D99A4266FDC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="460" windowWidth="24880" windowHeight="15540" xr2:uid="{B2C2CB42-254D-6645-A1BC-ACB3CAE6A41B}"/>
   </bookViews>
@@ -2275,7 +2275,7 @@
       <sheetName val="excel2007"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>商品编码</v>
@@ -8741,8 +8741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400FB282-4C5E-E444-B5C1-F6A67AB2F95C}">
   <dimension ref="A1:Q192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="C74" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8848,15 +8848,15 @@
         <v>224</v>
       </c>
       <c r="N2" t="str">
-        <f>VLOOKUP(K2,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K2,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>T恤</v>
       </c>
       <c r="O2" t="str">
-        <f>VLOOKUP(K2,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K2,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>玫红色 白色 亮黄色</v>
       </c>
       <c r="P2" t="str">
-        <f>VLOOKUP(K2,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K2,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>均码</v>
       </c>
       <c r="Q2" t="s">
@@ -8904,15 +8904,15 @@
         <v>224</v>
       </c>
       <c r="N3" t="str">
-        <f>VLOOKUP(K3,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K3,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>衬衣</v>
       </c>
       <c r="O3" t="str">
-        <f>VLOOKUP(K3,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K3,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>白色</v>
       </c>
       <c r="P3" t="str">
-        <f>VLOOKUP(K3,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K3,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>均码</v>
       </c>
     </row>
@@ -8957,15 +8957,15 @@
         <v>224</v>
       </c>
       <c r="N4" t="str">
-        <f>VLOOKUP(K4,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K4,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>夹克</v>
       </c>
       <c r="O4" t="str">
-        <f>VLOOKUP(K4,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K4,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>白色</v>
       </c>
       <c r="P4" t="str">
-        <f>VLOOKUP(K4,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K4,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>均码</v>
       </c>
     </row>
@@ -9010,15 +9010,15 @@
         <v>224</v>
       </c>
       <c r="N5" t="str">
-        <f>VLOOKUP(K5,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K5,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>T恤</v>
       </c>
       <c r="O5" t="str">
-        <f>VLOOKUP(K5,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K5,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>白色</v>
       </c>
       <c r="P5" t="str">
-        <f>VLOOKUP(K5,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K5,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>均码</v>
       </c>
     </row>
@@ -9063,15 +9063,15 @@
         <v>224</v>
       </c>
       <c r="N6" t="str">
-        <f>VLOOKUP(K6,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K6,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>T恤</v>
       </c>
       <c r="O6" t="str">
-        <f>VLOOKUP(K6,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K6,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>白色</v>
       </c>
       <c r="P6" t="str">
-        <f>VLOOKUP(K6,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K6,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>均码</v>
       </c>
     </row>
@@ -9116,15 +9116,15 @@
         <v>224</v>
       </c>
       <c r="N7" t="str">
-        <f>VLOOKUP(K7,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K7,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>T恤</v>
       </c>
       <c r="O7" t="str">
-        <f>VLOOKUP(K7,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K7,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>蓝白条 黑白条</v>
       </c>
       <c r="P7" t="str">
-        <f>VLOOKUP(K7,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K7,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>均码</v>
       </c>
     </row>
@@ -9169,15 +9169,15 @@
         <v>224</v>
       </c>
       <c r="N8" t="str">
-        <f>VLOOKUP(K8,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K8,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>西服</v>
       </c>
       <c r="O8" t="str">
-        <f>VLOOKUP(K8,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K8,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>蓝格纹</v>
       </c>
       <c r="P8" t="str">
-        <f>VLOOKUP(K8,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K8,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -9222,15 +9222,15 @@
         <v>224</v>
       </c>
       <c r="N9" t="str">
-        <f>VLOOKUP(K9,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K9,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>卫衣</v>
       </c>
       <c r="O9" t="str">
-        <f>VLOOKUP(K9,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K9,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>黑色</v>
       </c>
       <c r="P9" t="str">
-        <f>VLOOKUP(K9,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K9,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -9274,17 +9274,17 @@
       <c r="M10">
         <v>224</v>
       </c>
-      <c r="N10" t="e">
-        <f>VLOOKUP(K10,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O10" t="e">
-        <f>VLOOKUP(K10,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P10" t="e">
-        <f>VLOOKUP(K10,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N10" t="str">
+        <f>IFERROR(VLOOKUP(K10,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <f>IFERROR(VLOOKUP(K10,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <f>IFERROR(VLOOKUP(K10,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -9327,17 +9327,17 @@
       <c r="M11">
         <v>224</v>
       </c>
-      <c r="N11" t="e">
-        <f>VLOOKUP(K11,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O11" t="e">
-        <f>VLOOKUP(K11,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P11" t="e">
-        <f>VLOOKUP(K11,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N11" t="str">
+        <f>IFERROR(VLOOKUP(K11,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <f>IFERROR(VLOOKUP(K11,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <f>IFERROR(VLOOKUP(K11,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -9380,17 +9380,17 @@
       <c r="M12">
         <v>224</v>
       </c>
-      <c r="N12" t="e">
-        <f>VLOOKUP(K12,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O12" t="e">
-        <f>VLOOKUP(K12,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P12" t="e">
-        <f>VLOOKUP(K12,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N12" t="str">
+        <f>IFERROR(VLOOKUP(K12,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <f>IFERROR(VLOOKUP(K12,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <f>IFERROR(VLOOKUP(K12,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -9433,17 +9433,17 @@
       <c r="M13">
         <v>224</v>
       </c>
-      <c r="N13" t="e">
-        <f>VLOOKUP(K13,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O13" t="e">
-        <f>VLOOKUP(K13,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P13" t="e">
-        <f>VLOOKUP(K13,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N13" t="str">
+        <f>IFERROR(VLOOKUP(K13,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <f>IFERROR(VLOOKUP(K13,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <f>IFERROR(VLOOKUP(K13,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -9486,17 +9486,17 @@
       <c r="M14">
         <v>224</v>
       </c>
-      <c r="N14" t="e">
-        <f>VLOOKUP(K14,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O14" t="e">
-        <f>VLOOKUP(K14,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P14" t="e">
-        <f>VLOOKUP(K14,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N14" t="str">
+        <f>IFERROR(VLOOKUP(K14,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <f>IFERROR(VLOOKUP(K14,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <f>IFERROR(VLOOKUP(K14,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -9539,17 +9539,17 @@
       <c r="M15">
         <v>224</v>
       </c>
-      <c r="N15" t="e">
-        <f>VLOOKUP(K15,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O15" t="e">
-        <f>VLOOKUP(K15,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P15" t="e">
-        <f>VLOOKUP(K15,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N15" t="str">
+        <f>IFERROR(VLOOKUP(K15,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <f>IFERROR(VLOOKUP(K15,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <f>IFERROR(VLOOKUP(K15,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -9593,15 +9593,15 @@
         <v>224</v>
       </c>
       <c r="N16" t="str">
-        <f>VLOOKUP(K16,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K16,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>毛织上衣</v>
       </c>
       <c r="O16" t="str">
-        <f>VLOOKUP(K16,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K16,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>杏色 葡萄紫色</v>
       </c>
       <c r="P16" t="str">
-        <f>VLOOKUP(K16,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K16,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -9645,17 +9645,17 @@
       <c r="M17">
         <v>224</v>
       </c>
-      <c r="N17" t="e">
-        <f>VLOOKUP(K17,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O17" t="e">
-        <f>VLOOKUP(K17,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P17" t="e">
-        <f>VLOOKUP(K17,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N17" t="str">
+        <f>IFERROR(VLOOKUP(K17,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <f>IFERROR(VLOOKUP(K17,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <f>IFERROR(VLOOKUP(K17,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -9698,17 +9698,17 @@
       <c r="M18">
         <v>224</v>
       </c>
-      <c r="N18" t="e">
-        <f>VLOOKUP(K18,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O18" t="e">
-        <f>VLOOKUP(K18,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P18" t="e">
-        <f>VLOOKUP(K18,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N18" t="str">
+        <f>IFERROR(VLOOKUP(K18,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <f>IFERROR(VLOOKUP(K18,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <f>IFERROR(VLOOKUP(K18,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -9752,15 +9752,15 @@
         <v>224</v>
       </c>
       <c r="N19" t="str">
-        <f>VLOOKUP(K19,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K19,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>夹克</v>
       </c>
       <c r="O19" t="str">
-        <f>VLOOKUP(K19,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K19,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>牛仔蓝色</v>
       </c>
       <c r="P19" t="str">
-        <f>VLOOKUP(K19,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K19,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -9804,17 +9804,17 @@
       <c r="M20">
         <v>224</v>
       </c>
-      <c r="N20" t="e">
-        <f>VLOOKUP(K20,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O20" t="e">
-        <f>VLOOKUP(K20,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P20" t="e">
-        <f>VLOOKUP(K20,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N20" t="str">
+        <f>IFERROR(VLOOKUP(K20,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <f>IFERROR(VLOOKUP(K20,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <f>IFERROR(VLOOKUP(K20,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -9857,17 +9857,17 @@
       <c r="M21">
         <v>224</v>
       </c>
-      <c r="N21" t="e">
-        <f>VLOOKUP(K21,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O21" t="e">
-        <f>VLOOKUP(K21,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P21" t="e">
-        <f>VLOOKUP(K21,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N21" t="str">
+        <f>IFERROR(VLOOKUP(K21,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <f>IFERROR(VLOOKUP(K21,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <f>IFERROR(VLOOKUP(K21,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -9910,17 +9910,17 @@
       <c r="M22">
         <v>224</v>
       </c>
-      <c r="N22" t="e">
-        <f>VLOOKUP(K22,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O22" t="e">
-        <f>VLOOKUP(K22,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P22" t="e">
-        <f>VLOOKUP(K22,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N22" t="str">
+        <f>IFERROR(VLOOKUP(K22,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <f>IFERROR(VLOOKUP(K22,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <f>IFERROR(VLOOKUP(K22,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -9963,17 +9963,17 @@
       <c r="M23">
         <v>224</v>
       </c>
-      <c r="N23" t="e">
-        <f>VLOOKUP(K23,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O23" t="e">
-        <f>VLOOKUP(K23,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P23" t="e">
-        <f>VLOOKUP(K23,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N23" t="str">
+        <f>IFERROR(VLOOKUP(K23,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <f>IFERROR(VLOOKUP(K23,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <f>IFERROR(VLOOKUP(K23,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -10017,15 +10017,15 @@
         <v>224</v>
       </c>
       <c r="N24" t="str">
-        <f>VLOOKUP(K24,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K24,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>T恤</v>
       </c>
       <c r="O24" t="str">
-        <f>VLOOKUP(K24,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K24,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>米白色</v>
       </c>
       <c r="P24" t="str">
-        <f>VLOOKUP(K24,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K24,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -10069,17 +10069,17 @@
       <c r="M25">
         <v>224</v>
       </c>
-      <c r="N25" t="e">
-        <f>VLOOKUP(K25,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O25" t="e">
-        <f>VLOOKUP(K25,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P25" t="e">
-        <f>VLOOKUP(K25,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N25" t="str">
+        <f>IFERROR(VLOOKUP(K25,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O25" t="str">
+        <f>IFERROR(VLOOKUP(K25,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P25" t="str">
+        <f>IFERROR(VLOOKUP(K25,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -10123,15 +10123,15 @@
         <v>224</v>
       </c>
       <c r="N26" t="str">
-        <f>VLOOKUP(K26,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K26,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>卫衣</v>
       </c>
       <c r="O26" t="str">
-        <f>VLOOKUP(K26,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K26,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>米白色</v>
       </c>
       <c r="P26" t="str">
-        <f>VLOOKUP(K26,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K26,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>M</v>
       </c>
     </row>
@@ -10176,15 +10176,15 @@
         <v>224</v>
       </c>
       <c r="N27" t="str">
-        <f>VLOOKUP(K27,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K27,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>卫衣</v>
       </c>
       <c r="O27" t="str">
-        <f>VLOOKUP(K27,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K27,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>黑色</v>
       </c>
       <c r="P27" t="str">
-        <f>VLOOKUP(K27,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K27,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S</v>
       </c>
     </row>
@@ -10229,15 +10229,15 @@
         <v>224</v>
       </c>
       <c r="N28" t="str">
-        <f>VLOOKUP(K28,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K28,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>衬衣</v>
       </c>
       <c r="O28" t="str">
-        <f>VLOOKUP(K28,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K28,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>白色</v>
       </c>
       <c r="P28" t="str">
-        <f>VLOOKUP(K28,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K28,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>均码</v>
       </c>
     </row>
@@ -10282,15 +10282,15 @@
         <v>224</v>
       </c>
       <c r="N29" t="str">
-        <f>VLOOKUP(K29,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K29,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>T恤</v>
       </c>
       <c r="O29" t="str">
-        <f>VLOOKUP(K29,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K29,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>黑色 白色</v>
       </c>
       <c r="P29" t="str">
-        <f>VLOOKUP(K29,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K29,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S XL</v>
       </c>
     </row>
@@ -10335,15 +10335,15 @@
         <v>224</v>
       </c>
       <c r="N30" t="str">
-        <f>VLOOKUP(K30,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K30,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>卫衣</v>
       </c>
       <c r="O30" t="str">
-        <f>VLOOKUP(K30,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K30,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>黑色</v>
       </c>
       <c r="P30" t="str">
-        <f>VLOOKUP(K30,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K30,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -10388,15 +10388,15 @@
         <v>224</v>
       </c>
       <c r="N31" t="str">
-        <f>VLOOKUP(K31,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K31,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>连体裤</v>
       </c>
       <c r="O31" t="str">
-        <f>VLOOKUP(K31,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K31,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>藏蓝色</v>
       </c>
       <c r="P31" t="str">
-        <f>VLOOKUP(K31,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K31,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -10441,15 +10441,15 @@
         <v>224</v>
       </c>
       <c r="N32" t="str">
-        <f>VLOOKUP(K32,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K32,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>T恤</v>
       </c>
       <c r="O32" t="str">
-        <f>VLOOKUP(K32,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K32,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>白色</v>
       </c>
       <c r="P32" t="str">
-        <f>VLOOKUP(K32,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K32,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -10493,17 +10493,17 @@
       <c r="M33">
         <v>224</v>
       </c>
-      <c r="N33" t="e">
-        <f>VLOOKUP(K33,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O33" t="e">
-        <f>VLOOKUP(K33,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P33" t="e">
-        <f>VLOOKUP(K33,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N33" t="str">
+        <f>IFERROR(VLOOKUP(K33,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O33" t="str">
+        <f>IFERROR(VLOOKUP(K33,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P33" t="str">
+        <f>IFERROR(VLOOKUP(K33,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -10546,17 +10546,17 @@
       <c r="M34">
         <v>224</v>
       </c>
-      <c r="N34" t="e">
-        <f>VLOOKUP(K34,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O34" t="e">
-        <f>VLOOKUP(K34,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P34" t="e">
-        <f>VLOOKUP(K34,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N34" t="str">
+        <f>IFERROR(VLOOKUP(K34,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O34" t="str">
+        <f>IFERROR(VLOOKUP(K34,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P34" t="str">
+        <f>IFERROR(VLOOKUP(K34,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -10599,17 +10599,17 @@
       <c r="M35">
         <v>224</v>
       </c>
-      <c r="N35" t="e">
-        <f>VLOOKUP(K35,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O35" t="e">
-        <f>VLOOKUP(K35,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P35" t="e">
-        <f>VLOOKUP(K35,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N35" t="str">
+        <f>IFERROR(VLOOKUP(K35,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O35" t="str">
+        <f>IFERROR(VLOOKUP(K35,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P35" t="str">
+        <f>IFERROR(VLOOKUP(K35,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -10653,15 +10653,15 @@
         <v>224</v>
       </c>
       <c r="N36" t="str">
-        <f>VLOOKUP(K36,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K36,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>T恤</v>
       </c>
       <c r="O36" t="str">
-        <f>VLOOKUP(K36,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K36,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>黑色 红色 白色</v>
       </c>
       <c r="P36" t="str">
-        <f>VLOOKUP(K36,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K36,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -10705,17 +10705,17 @@
       <c r="M37">
         <v>224</v>
       </c>
-      <c r="N37" t="e">
-        <f>VLOOKUP(K37,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O37" t="e">
-        <f>VLOOKUP(K37,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P37" t="e">
-        <f>VLOOKUP(K37,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N37" t="str">
+        <f>IFERROR(VLOOKUP(K37,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O37" t="str">
+        <f>IFERROR(VLOOKUP(K37,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P37" t="str">
+        <f>IFERROR(VLOOKUP(K37,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -10758,17 +10758,17 @@
       <c r="M38">
         <v>224</v>
       </c>
-      <c r="N38" t="e">
-        <f>VLOOKUP(K38,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O38" t="e">
-        <f>VLOOKUP(K38,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P38" t="e">
-        <f>VLOOKUP(K38,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N38" t="str">
+        <f>IFERROR(VLOOKUP(K38,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O38" t="str">
+        <f>IFERROR(VLOOKUP(K38,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P38" t="str">
+        <f>IFERROR(VLOOKUP(K38,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -10812,15 +10812,15 @@
         <v>224</v>
       </c>
       <c r="N39" t="str">
-        <f>VLOOKUP(K39,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K39,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>连衣裙</v>
       </c>
       <c r="O39" t="str">
-        <f>VLOOKUP(K39,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K39,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>黑色</v>
       </c>
       <c r="P39" t="str">
-        <f>VLOOKUP(K39,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K39,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -10865,15 +10865,15 @@
         <v>224</v>
       </c>
       <c r="N40" t="str">
-        <f>VLOOKUP(K40,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K40,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>T恤</v>
       </c>
       <c r="O40" t="str">
-        <f>VLOOKUP(K40,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K40,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>黑色</v>
       </c>
       <c r="P40" t="str">
-        <f>VLOOKUP(K40,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K40,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -10918,15 +10918,15 @@
         <v>224</v>
       </c>
       <c r="N41" t="str">
-        <f>VLOOKUP(K41,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K41,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>T恤</v>
       </c>
       <c r="O41" t="str">
-        <f>VLOOKUP(K41,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K41,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>宝蓝色 粉紫色</v>
       </c>
       <c r="P41" t="str">
-        <f>VLOOKUP(K41,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K41,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -10971,15 +10971,15 @@
         <v>224</v>
       </c>
       <c r="N42" t="str">
-        <f>VLOOKUP(K42,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K42,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>T恤</v>
       </c>
       <c r="O42" t="str">
-        <f>VLOOKUP(K42,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K42,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>灰色</v>
       </c>
       <c r="P42" t="str">
-        <f>VLOOKUP(K42,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K42,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -11024,15 +11024,15 @@
         <v>224</v>
       </c>
       <c r="N43" t="str">
-        <f>VLOOKUP(K43,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K43,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>T恤</v>
       </c>
       <c r="O43" t="str">
-        <f>VLOOKUP(K43,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K43,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>白色</v>
       </c>
       <c r="P43" t="str">
-        <f>VLOOKUP(K43,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K43,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -11077,15 +11077,15 @@
         <v>224</v>
       </c>
       <c r="N44" t="str">
-        <f>VLOOKUP(K44,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K44,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>卫衣</v>
       </c>
       <c r="O44" t="str">
-        <f>VLOOKUP(K44,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K44,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>米白色</v>
       </c>
       <c r="P44" t="str">
-        <f>VLOOKUP(K44,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K44,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -11130,15 +11130,15 @@
         <v>224</v>
       </c>
       <c r="N45" t="str">
-        <f>VLOOKUP(K45,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K45,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>T恤</v>
       </c>
       <c r="O45" t="str">
-        <f>VLOOKUP(K45,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K45,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>宝蓝色</v>
       </c>
       <c r="P45" t="str">
-        <f>VLOOKUP(K45,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K45,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -11182,17 +11182,17 @@
       <c r="M46">
         <v>224</v>
       </c>
-      <c r="N46" t="e">
-        <f>VLOOKUP(K46,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O46" t="e">
-        <f>VLOOKUP(K46,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P46" t="e">
-        <f>VLOOKUP(K46,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N46" t="str">
+        <f>IFERROR(VLOOKUP(K46,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O46" t="str">
+        <f>IFERROR(VLOOKUP(K46,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P46" t="str">
+        <f>IFERROR(VLOOKUP(K46,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -11236,15 +11236,15 @@
         <v>224</v>
       </c>
       <c r="N47" t="str">
-        <f>VLOOKUP(K47,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K47,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>T恤</v>
       </c>
       <c r="O47" t="str">
-        <f>VLOOKUP(K47,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K47,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>蓝色 粉红色</v>
       </c>
       <c r="P47" t="str">
-        <f>VLOOKUP(K47,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K47,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>均码</v>
       </c>
     </row>
@@ -11289,15 +11289,15 @@
         <v>224</v>
       </c>
       <c r="N48" t="str">
-        <f>VLOOKUP(K48,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K48,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>上衣</v>
       </c>
       <c r="O48" t="str">
-        <f>VLOOKUP(K48,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K48,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>黄色</v>
       </c>
       <c r="P48" t="str">
-        <f>VLOOKUP(K48,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K48,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>均码</v>
       </c>
     </row>
@@ -11342,15 +11342,15 @@
         <v>224</v>
       </c>
       <c r="N49" t="str">
-        <f>VLOOKUP(K49,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K49,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>卫衣</v>
       </c>
       <c r="O49" t="str">
-        <f>VLOOKUP(K49,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K49,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>灰蓝色 米白色</v>
       </c>
       <c r="P49" t="str">
-        <f>VLOOKUP(K49,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K49,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -11395,15 +11395,15 @@
         <v>224</v>
       </c>
       <c r="N50" t="str">
-        <f>VLOOKUP(K50,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K50,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>卫衣</v>
       </c>
       <c r="O50" t="str">
-        <f>VLOOKUP(K50,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K50,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>米白色</v>
       </c>
       <c r="P50" t="str">
-        <f>VLOOKUP(K50,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K50,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -11448,15 +11448,15 @@
         <v>224</v>
       </c>
       <c r="N51" t="str">
-        <f>VLOOKUP(K51,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K51,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>半裙</v>
       </c>
       <c r="O51" t="str">
-        <f>VLOOKUP(K51,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K51,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>蓝格纹</v>
       </c>
       <c r="P51" t="str">
-        <f>VLOOKUP(K51,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K51,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -11501,15 +11501,15 @@
         <v>224</v>
       </c>
       <c r="N52" t="str">
-        <f>VLOOKUP(K52,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K52,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>毛织上衣</v>
       </c>
       <c r="O52" t="str">
-        <f>VLOOKUP(K52,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K52,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>黄色</v>
       </c>
       <c r="P52" t="str">
-        <f>VLOOKUP(K52,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K52,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>均码</v>
       </c>
     </row>
@@ -11554,15 +11554,15 @@
         <v>224</v>
       </c>
       <c r="N53" t="str">
-        <f>VLOOKUP(K53,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K53,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>卫衣</v>
       </c>
       <c r="O53" t="str">
-        <f>VLOOKUP(K53,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K53,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>黑色 白色</v>
       </c>
       <c r="P53" t="str">
-        <f>VLOOKUP(K53,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K53,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>均码</v>
       </c>
     </row>
@@ -11607,15 +11607,15 @@
         <v>224</v>
       </c>
       <c r="N54" t="str">
-        <f>VLOOKUP(K54,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K54,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>T恤</v>
       </c>
       <c r="O54" t="str">
-        <f>VLOOKUP(K54,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K54,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>白色</v>
       </c>
       <c r="P54" t="str">
-        <f>VLOOKUP(K54,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K54,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>均码</v>
       </c>
     </row>
@@ -11660,15 +11660,15 @@
         <v>224</v>
       </c>
       <c r="N55" t="str">
-        <f>VLOOKUP(K55,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K55,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>卫衣</v>
       </c>
       <c r="O55" t="str">
-        <f>VLOOKUP(K55,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K55,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>白色</v>
       </c>
       <c r="P55" t="str">
-        <f>VLOOKUP(K55,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K55,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>均码</v>
       </c>
     </row>
@@ -11713,15 +11713,15 @@
         <v>224</v>
       </c>
       <c r="N56" t="str">
-        <f>VLOOKUP(K56,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K56,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>卫衣</v>
       </c>
       <c r="O56" t="str">
-        <f>VLOOKUP(K56,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K56,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>黑色</v>
       </c>
       <c r="P56" t="str">
-        <f>VLOOKUP(K56,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K56,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -11765,17 +11765,17 @@
       <c r="M57">
         <v>224</v>
       </c>
-      <c r="N57" t="e">
-        <f>VLOOKUP(K57,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O57" t="e">
-        <f>VLOOKUP(K57,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P57" t="e">
-        <f>VLOOKUP(K57,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N57" t="str">
+        <f>IFERROR(VLOOKUP(K57,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O57" t="str">
+        <f>IFERROR(VLOOKUP(K57,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P57" t="str">
+        <f>IFERROR(VLOOKUP(K57,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -11818,17 +11818,17 @@
       <c r="M58">
         <v>224</v>
       </c>
-      <c r="N58" t="e">
-        <f>VLOOKUP(K58,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O58" t="e">
-        <f>VLOOKUP(K58,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P58" t="e">
-        <f>VLOOKUP(K58,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N58" t="str">
+        <f>IFERROR(VLOOKUP(K58,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O58" t="str">
+        <f>IFERROR(VLOOKUP(K58,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P58" t="str">
+        <f>IFERROR(VLOOKUP(K58,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -11871,17 +11871,17 @@
       <c r="M59">
         <v>224</v>
       </c>
-      <c r="N59" t="e">
-        <f>VLOOKUP(K59,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O59" t="e">
-        <f>VLOOKUP(K59,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P59" t="e">
-        <f>VLOOKUP(K59,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N59" t="str">
+        <f>IFERROR(VLOOKUP(K59,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O59" t="str">
+        <f>IFERROR(VLOOKUP(K59,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P59" t="str">
+        <f>IFERROR(VLOOKUP(K59,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -11924,17 +11924,17 @@
       <c r="M60">
         <v>224</v>
       </c>
-      <c r="N60" t="e">
-        <f>VLOOKUP(K60,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O60" t="e">
-        <f>VLOOKUP(K60,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P60" t="e">
-        <f>VLOOKUP(K60,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N60" t="str">
+        <f>IFERROR(VLOOKUP(K60,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O60" t="str">
+        <f>IFERROR(VLOOKUP(K60,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P60" t="str">
+        <f>IFERROR(VLOOKUP(K60,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -11977,17 +11977,17 @@
       <c r="M61">
         <v>224</v>
       </c>
-      <c r="N61" t="e">
-        <f>VLOOKUP(K61,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O61" t="e">
-        <f>VLOOKUP(K61,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P61" t="e">
-        <f>VLOOKUP(K61,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N61" t="str">
+        <f>IFERROR(VLOOKUP(K61,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O61" t="str">
+        <f>IFERROR(VLOOKUP(K61,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P61" t="str">
+        <f>IFERROR(VLOOKUP(K61,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -12030,17 +12030,17 @@
       <c r="M62">
         <v>224</v>
       </c>
-      <c r="N62" t="e">
-        <f>VLOOKUP(K62,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O62" t="e">
-        <f>VLOOKUP(K62,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P62" t="e">
-        <f>VLOOKUP(K62,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N62" t="str">
+        <f>IFERROR(VLOOKUP(K62,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O62" t="str">
+        <f>IFERROR(VLOOKUP(K62,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P62" t="str">
+        <f>IFERROR(VLOOKUP(K62,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -12083,17 +12083,17 @@
       <c r="M63">
         <v>224</v>
       </c>
-      <c r="N63" t="e">
-        <f>VLOOKUP(K63,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O63" t="e">
-        <f>VLOOKUP(K63,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P63" t="e">
-        <f>VLOOKUP(K63,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N63" t="str">
+        <f>IFERROR(VLOOKUP(K63,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O63" t="str">
+        <f>IFERROR(VLOOKUP(K63,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P63" t="str">
+        <f>IFERROR(VLOOKUP(K63,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -12137,15 +12137,15 @@
         <v>224</v>
       </c>
       <c r="N64" t="str">
-        <f>VLOOKUP(K64,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K64,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>卫衣</v>
       </c>
       <c r="O64" t="str">
-        <f>VLOOKUP(K64,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K64,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>蓝色</v>
       </c>
       <c r="P64" t="str">
-        <f>VLOOKUP(K64,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K64,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>均码</v>
       </c>
     </row>
@@ -12190,15 +12190,15 @@
         <v>224</v>
       </c>
       <c r="N65" t="str">
-        <f>VLOOKUP(K65,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K65,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>卫衣</v>
       </c>
       <c r="O65" t="str">
-        <f>VLOOKUP(K65,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K65,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>米白色</v>
       </c>
       <c r="P65" t="str">
-        <f>VLOOKUP(K65,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K65,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -12243,15 +12243,15 @@
         <v>224</v>
       </c>
       <c r="N66" t="str">
-        <f>VLOOKUP(K66,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K66,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>半裙</v>
       </c>
       <c r="O66" t="str">
-        <f>VLOOKUP(K66,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K66,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>绿格纹 黄格纹</v>
       </c>
       <c r="P66" t="str">
-        <f>VLOOKUP(K66,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K66,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -12296,15 +12296,15 @@
         <v>224</v>
       </c>
       <c r="N67" t="str">
-        <f>VLOOKUP(K67,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K67,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>休闲裤</v>
       </c>
       <c r="O67" t="str">
-        <f>VLOOKUP(K67,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K67,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>浅灰色</v>
       </c>
       <c r="P67" t="str">
-        <f>VLOOKUP(K67,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K67,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>均码</v>
       </c>
     </row>
@@ -12349,15 +12349,15 @@
         <v>224</v>
       </c>
       <c r="N68" t="str">
-        <f>VLOOKUP(K68,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K68,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>休闲裤</v>
       </c>
       <c r="O68" t="str">
-        <f>VLOOKUP(K68,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K68,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>红色</v>
       </c>
       <c r="P68" t="str">
-        <f>VLOOKUP(K68,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K68,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>均码</v>
       </c>
     </row>
@@ -12402,15 +12402,15 @@
         <v>224</v>
       </c>
       <c r="N69" t="str">
-        <f>VLOOKUP(K69,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K69,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>卫衣</v>
       </c>
       <c r="O69" t="str">
-        <f>VLOOKUP(K69,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K69,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>花灰色</v>
       </c>
       <c r="P69" t="str">
-        <f>VLOOKUP(K69,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K69,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -12455,15 +12455,15 @@
         <v>224</v>
       </c>
       <c r="N70" t="str">
-        <f>VLOOKUP(K70,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K70,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>卫衣</v>
       </c>
       <c r="O70" t="str">
-        <f>VLOOKUP(K70,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K70,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>花灰色</v>
       </c>
       <c r="P70" t="str">
-        <f>VLOOKUP(K70,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K70,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -12508,15 +12508,15 @@
         <v>224</v>
       </c>
       <c r="N71" t="str">
-        <f>VLOOKUP(K71,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K71,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>卫衣</v>
       </c>
       <c r="O71" t="str">
-        <f>VLOOKUP(K71,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K71,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>黑色 米白色</v>
       </c>
       <c r="P71" t="str">
-        <f>VLOOKUP(K71,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K71,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -12560,17 +12560,17 @@
       <c r="M72">
         <v>224</v>
       </c>
-      <c r="N72" t="e">
-        <f>VLOOKUP(K72,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O72" t="e">
-        <f>VLOOKUP(K72,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P72" t="e">
-        <f>VLOOKUP(K72,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N72" t="str">
+        <f>IFERROR(VLOOKUP(K72,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O72" t="str">
+        <f>IFERROR(VLOOKUP(K72,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P72" t="str">
+        <f>IFERROR(VLOOKUP(K72,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -12613,17 +12613,17 @@
       <c r="M73">
         <v>224</v>
       </c>
-      <c r="N73" t="e">
-        <f>VLOOKUP(K73,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O73" t="e">
-        <f>VLOOKUP(K73,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P73" t="e">
-        <f>VLOOKUP(K73,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N73" t="str">
+        <f>IFERROR(VLOOKUP(K73,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O73" t="str">
+        <f>IFERROR(VLOOKUP(K73,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P73" t="str">
+        <f>IFERROR(VLOOKUP(K73,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -12666,17 +12666,17 @@
       <c r="M74">
         <v>224</v>
       </c>
-      <c r="N74" t="e">
-        <f>VLOOKUP(K74,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O74" t="e">
-        <f>VLOOKUP(K74,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P74" t="e">
-        <f>VLOOKUP(K74,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N74" t="str">
+        <f>IFERROR(VLOOKUP(K74,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O74" t="str">
+        <f>IFERROR(VLOOKUP(K74,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P74" t="str">
+        <f>IFERROR(VLOOKUP(K74,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -12719,17 +12719,17 @@
       <c r="M75">
         <v>224</v>
       </c>
-      <c r="N75" t="e">
-        <f>VLOOKUP(K75,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O75" t="e">
-        <f>VLOOKUP(K75,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P75" t="e">
-        <f>VLOOKUP(K75,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N75" t="str">
+        <f>IFERROR(VLOOKUP(K75,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O75" t="str">
+        <f>IFERROR(VLOOKUP(K75,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P75" t="str">
+        <f>IFERROR(VLOOKUP(K75,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -12772,17 +12772,17 @@
       <c r="M76">
         <v>224</v>
       </c>
-      <c r="N76" t="e">
-        <f>VLOOKUP(K76,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O76" t="e">
-        <f>VLOOKUP(K76,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P76" t="e">
-        <f>VLOOKUP(K76,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N76" t="str">
+        <f>IFERROR(VLOOKUP(K76,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O76" t="str">
+        <f>IFERROR(VLOOKUP(K76,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P76" t="str">
+        <f>IFERROR(VLOOKUP(K76,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -12825,17 +12825,17 @@
       <c r="M77">
         <v>224</v>
       </c>
-      <c r="N77" t="e">
-        <f>VLOOKUP(K77,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O77" t="e">
-        <f>VLOOKUP(K77,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P77" t="e">
-        <f>VLOOKUP(K77,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N77" t="str">
+        <f>IFERROR(VLOOKUP(K77,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O77" t="str">
+        <f>IFERROR(VLOOKUP(K77,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P77" t="str">
+        <f>IFERROR(VLOOKUP(K77,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -12878,17 +12878,17 @@
       <c r="M78">
         <v>224</v>
       </c>
-      <c r="N78" t="e">
-        <f>VLOOKUP(K78,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O78" t="e">
-        <f>VLOOKUP(K78,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P78" t="e">
-        <f>VLOOKUP(K78,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N78" t="str">
+        <f>IFERROR(VLOOKUP(K78,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O78" t="str">
+        <f>IFERROR(VLOOKUP(K78,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P78" t="str">
+        <f>IFERROR(VLOOKUP(K78,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -12932,15 +12932,15 @@
         <v>224</v>
       </c>
       <c r="N79" t="str">
-        <f>VLOOKUP(K79,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K79,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>卫衣</v>
       </c>
       <c r="O79" t="str">
-        <f>VLOOKUP(K79,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K79,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>黑色</v>
       </c>
       <c r="P79" t="str">
-        <f>VLOOKUP(K79,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K79,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>L M S</v>
       </c>
     </row>
@@ -12984,17 +12984,17 @@
       <c r="M80">
         <v>224</v>
       </c>
-      <c r="N80" t="e">
-        <f>VLOOKUP(K80,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O80" t="e">
-        <f>VLOOKUP(K80,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P80" t="e">
-        <f>VLOOKUP(K80,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N80" t="str">
+        <f>IFERROR(VLOOKUP(K80,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O80" t="str">
+        <f>IFERROR(VLOOKUP(K80,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P80" t="str">
+        <f>IFERROR(VLOOKUP(K80,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -13037,17 +13037,17 @@
       <c r="M81">
         <v>224</v>
       </c>
-      <c r="N81" t="e">
-        <f>VLOOKUP(K81,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O81" t="e">
-        <f>VLOOKUP(K81,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P81" t="e">
-        <f>VLOOKUP(K81,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N81" t="str">
+        <f>IFERROR(VLOOKUP(K81,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O81" t="str">
+        <f>IFERROR(VLOOKUP(K81,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P81" t="str">
+        <f>IFERROR(VLOOKUP(K81,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -13090,17 +13090,17 @@
       <c r="M82">
         <v>224</v>
       </c>
-      <c r="N82" t="e">
-        <f>VLOOKUP(K82,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O82" t="e">
-        <f>VLOOKUP(K82,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P82" t="e">
-        <f>VLOOKUP(K82,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N82" t="str">
+        <f>IFERROR(VLOOKUP(K82,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O82" t="str">
+        <f>IFERROR(VLOOKUP(K82,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P82" t="str">
+        <f>IFERROR(VLOOKUP(K82,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -13143,17 +13143,17 @@
       <c r="M83">
         <v>224</v>
       </c>
-      <c r="N83" t="e">
-        <f>VLOOKUP(K83,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O83" t="e">
-        <f>VLOOKUP(K83,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P83" t="e">
-        <f>VLOOKUP(K83,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N83" t="str">
+        <f>IFERROR(VLOOKUP(K83,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O83" t="str">
+        <f>IFERROR(VLOOKUP(K83,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P83" t="str">
+        <f>IFERROR(VLOOKUP(K83,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -13196,17 +13196,17 @@
       <c r="M84">
         <v>224</v>
       </c>
-      <c r="N84" t="e">
-        <f>VLOOKUP(K84,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O84" t="e">
-        <f>VLOOKUP(K84,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P84" t="e">
-        <f>VLOOKUP(K84,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N84" t="str">
+        <f>IFERROR(VLOOKUP(K84,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O84" t="str">
+        <f>IFERROR(VLOOKUP(K84,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P84" t="str">
+        <f>IFERROR(VLOOKUP(K84,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -13250,15 +13250,15 @@
         <v>224</v>
       </c>
       <c r="N85" t="str">
-        <f>VLOOKUP(K85,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K85,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>外套</v>
       </c>
       <c r="O85" t="str">
-        <f>VLOOKUP(K85,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K85,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>牛仔蓝</v>
       </c>
       <c r="P85" t="str">
-        <f>VLOOKUP(K85,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K85,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -13303,15 +13303,15 @@
         <v>224</v>
       </c>
       <c r="N86" t="str">
-        <f>VLOOKUP(K86,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K86,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>毛织上衣</v>
       </c>
       <c r="O86" t="str">
-        <f>VLOOKUP(K86,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K86,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>黑色</v>
       </c>
       <c r="P86" t="str">
-        <f>VLOOKUP(K86,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K86,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -13356,15 +13356,15 @@
         <v>224</v>
       </c>
       <c r="N87" t="str">
-        <f>VLOOKUP(K87,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K87,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>羽绒</v>
       </c>
       <c r="O87" t="str">
-        <f>VLOOKUP(K87,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K87,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>军绿</v>
       </c>
       <c r="P87" t="str">
-        <f>VLOOKUP(K87,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K87,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -13409,15 +13409,15 @@
         <v>224</v>
       </c>
       <c r="N88" t="str">
-        <f>VLOOKUP(K88,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K88,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>连身裤</v>
       </c>
       <c r="O88" t="str">
-        <f>VLOOKUP(K88,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K88,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>枣红 黑色</v>
       </c>
       <c r="P88" t="str">
-        <f>VLOOKUP(K88,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K88,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -13462,15 +13462,15 @@
         <v>224</v>
       </c>
       <c r="N89" t="str">
-        <f>VLOOKUP(K89,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K89,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>上衣</v>
       </c>
       <c r="O89" t="str">
-        <f>VLOOKUP(K89,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K89,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>白色 黑色</v>
       </c>
       <c r="P89" t="str">
-        <f>VLOOKUP(K89,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K89,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -13515,15 +13515,15 @@
         <v>224</v>
       </c>
       <c r="N90" t="str">
-        <f>VLOOKUP(K90,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K90,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>羽绒</v>
       </c>
       <c r="O90" t="str">
-        <f>VLOOKUP(K90,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K90,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>橙红</v>
       </c>
       <c r="P90" t="str">
-        <f>VLOOKUP(K90,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K90,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -13564,17 +13564,17 @@
       <c r="M91">
         <v>224</v>
       </c>
-      <c r="N91" t="e">
-        <f>VLOOKUP(K91,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O91" t="e">
-        <f>VLOOKUP(K91,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P91" t="e">
-        <f>VLOOKUP(K91,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N91" t="str">
+        <f>IFERROR(VLOOKUP(K91,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O91" t="str">
+        <f>IFERROR(VLOOKUP(K91,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P91" t="str">
+        <f>IFERROR(VLOOKUP(K91,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -13617,17 +13617,17 @@
       <c r="M92">
         <v>224</v>
       </c>
-      <c r="N92" t="e">
-        <f>VLOOKUP(K92,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O92" t="e">
-        <f>VLOOKUP(K92,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P92" t="e">
-        <f>VLOOKUP(K92,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N92" t="str">
+        <f>IFERROR(VLOOKUP(K92,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O92" t="str">
+        <f>IFERROR(VLOOKUP(K92,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P92" t="str">
+        <f>IFERROR(VLOOKUP(K92,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -13670,17 +13670,17 @@
       <c r="M93">
         <v>224</v>
       </c>
-      <c r="N93" t="e">
-        <f>VLOOKUP(K93,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O93" t="e">
-        <f>VLOOKUP(K93,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P93" t="e">
-        <f>VLOOKUP(K93,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N93" t="str">
+        <f>IFERROR(VLOOKUP(K93,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O93" t="str">
+        <f>IFERROR(VLOOKUP(K93,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P93" t="str">
+        <f>IFERROR(VLOOKUP(K93,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -13723,17 +13723,17 @@
       <c r="M94">
         <v>224</v>
       </c>
-      <c r="N94" t="e">
-        <f>VLOOKUP(K94,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O94" t="e">
-        <f>VLOOKUP(K94,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P94" t="e">
-        <f>VLOOKUP(K94,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N94" t="str">
+        <f>IFERROR(VLOOKUP(K94,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O94" t="str">
+        <f>IFERROR(VLOOKUP(K94,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P94" t="str">
+        <f>IFERROR(VLOOKUP(K94,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -13776,17 +13776,17 @@
       <c r="M95">
         <v>224</v>
       </c>
-      <c r="N95" t="e">
-        <f>VLOOKUP(K95,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O95" t="e">
-        <f>VLOOKUP(K95,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P95" t="e">
-        <f>VLOOKUP(K95,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N95" t="str">
+        <f>IFERROR(VLOOKUP(K95,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O95" t="str">
+        <f>IFERROR(VLOOKUP(K95,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P95" t="str">
+        <f>IFERROR(VLOOKUP(K95,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -13829,17 +13829,17 @@
       <c r="M96">
         <v>224</v>
       </c>
-      <c r="N96" t="e">
-        <f>VLOOKUP(K96,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O96" t="e">
-        <f>VLOOKUP(K96,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P96" t="e">
-        <f>VLOOKUP(K96,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N96" t="str">
+        <f>IFERROR(VLOOKUP(K96,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O96" t="str">
+        <f>IFERROR(VLOOKUP(K96,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P96" t="str">
+        <f>IFERROR(VLOOKUP(K96,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -13882,17 +13882,17 @@
       <c r="M97">
         <v>224</v>
       </c>
-      <c r="N97" t="e">
-        <f>VLOOKUP(K97,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O97" t="e">
-        <f>VLOOKUP(K97,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P97" t="e">
-        <f>VLOOKUP(K97,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N97" t="str">
+        <f>IFERROR(VLOOKUP(K97,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O97" t="str">
+        <f>IFERROR(VLOOKUP(K97,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P97" t="str">
+        <f>IFERROR(VLOOKUP(K97,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -13935,17 +13935,17 @@
       <c r="M98">
         <v>224</v>
       </c>
-      <c r="N98" t="e">
-        <f>VLOOKUP(K98,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O98" t="e">
-        <f>VLOOKUP(K98,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P98" t="e">
-        <f>VLOOKUP(K98,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N98" t="str">
+        <f>IFERROR(VLOOKUP(K98,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O98" t="str">
+        <f>IFERROR(VLOOKUP(K98,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P98" t="str">
+        <f>IFERROR(VLOOKUP(K98,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -13988,17 +13988,17 @@
       <c r="M99">
         <v>224</v>
       </c>
-      <c r="N99" t="e">
-        <f>VLOOKUP(K99,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O99" t="e">
-        <f>VLOOKUP(K99,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P99" t="e">
-        <f>VLOOKUP(K99,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N99" t="str">
+        <f>IFERROR(VLOOKUP(K99,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O99" t="str">
+        <f>IFERROR(VLOOKUP(K99,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P99" t="str">
+        <f>IFERROR(VLOOKUP(K99,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -14042,15 +14042,15 @@
         <v>224</v>
       </c>
       <c r="N100" t="str">
-        <f>VLOOKUP(K100,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K100,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>长裤</v>
       </c>
       <c r="O100" t="str">
-        <f>VLOOKUP(K100,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K100,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>杏色</v>
       </c>
       <c r="P100" t="str">
-        <f>VLOOKUP(K100,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K100,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷）</v>
       </c>
     </row>
@@ -14095,15 +14095,15 @@
         <v>224</v>
       </c>
       <c r="N101" t="str">
-        <f>VLOOKUP(K101,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K101,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>外套</v>
       </c>
       <c r="O101" t="str">
-        <f>VLOOKUP(K101,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K101,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>啡黄 藏蓝</v>
       </c>
       <c r="P101" t="str">
-        <f>VLOOKUP(K101,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K101,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -14148,15 +14148,15 @@
         <v>224</v>
       </c>
       <c r="N102" t="str">
-        <f>VLOOKUP(K102,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K102,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>中裤</v>
       </c>
       <c r="O102" t="str">
-        <f>VLOOKUP(K102,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K102,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>白色 杏色 黑色</v>
       </c>
       <c r="P102" t="str">
-        <f>VLOOKUP(K102,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K102,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>F S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -14201,15 +14201,15 @@
         <v>224</v>
       </c>
       <c r="N103" t="str">
-        <f>VLOOKUP(K103,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K103,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>长裤</v>
       </c>
       <c r="O103" t="str">
-        <f>VLOOKUP(K103,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K103,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>米白 黑色</v>
       </c>
       <c r="P103" t="str">
-        <f>VLOOKUP(K103,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K103,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -14254,15 +14254,15 @@
         <v>224</v>
       </c>
       <c r="N104" t="str">
-        <f>VLOOKUP(K104,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K104,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>夹克外套</v>
       </c>
       <c r="O104" t="str">
-        <f>VLOOKUP(K104,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K104,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>米白 绿色 酒红</v>
       </c>
       <c r="P104" t="str">
-        <f>VLOOKUP(K104,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K104,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -14307,15 +14307,15 @@
         <v>224</v>
       </c>
       <c r="N105" t="str">
-        <f>VLOOKUP(K105,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K105,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>T恤</v>
       </c>
       <c r="O105" t="str">
-        <f>VLOOKUP(K105,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K105,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>橙色</v>
       </c>
       <c r="P105" t="str">
-        <f>VLOOKUP(K105,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K105,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -14360,15 +14360,15 @@
         <v>224</v>
       </c>
       <c r="N106" t="str">
-        <f>VLOOKUP(K106,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K106,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>外套</v>
       </c>
       <c r="O106" t="str">
-        <f>VLOOKUP(K106,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K106,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>牛仔蓝</v>
       </c>
       <c r="P106" t="str">
-        <f>VLOOKUP(K106,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K106,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -14413,15 +14413,15 @@
         <v>224</v>
       </c>
       <c r="N107" t="str">
-        <f>VLOOKUP(K107,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K107,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>背心</v>
       </c>
       <c r="O107" t="str">
-        <f>VLOOKUP(K107,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K107,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>荧光黄 杂色</v>
       </c>
       <c r="P107" t="str">
-        <f>VLOOKUP(K107,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K107,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>F S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -14466,15 +14466,15 @@
         <v>224</v>
       </c>
       <c r="N108" t="str">
-        <f>VLOOKUP(K108,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K108,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>外套</v>
       </c>
       <c r="O108" t="str">
-        <f>VLOOKUP(K108,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K108,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>白色</v>
       </c>
       <c r="P108" t="str">
-        <f>VLOOKUP(K108,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K108,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -14519,15 +14519,15 @@
         <v>224</v>
       </c>
       <c r="N109" t="str">
-        <f>VLOOKUP(K109,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K109,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>T恤</v>
       </c>
       <c r="O109" t="str">
-        <f>VLOOKUP(K109,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K109,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>杏色 黑色</v>
       </c>
       <c r="P109" t="str">
-        <f>VLOOKUP(K109,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K109,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -14572,15 +14572,15 @@
         <v>224</v>
       </c>
       <c r="N110" t="str">
-        <f>VLOOKUP(K110,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K110,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>半身裙</v>
       </c>
       <c r="O110" t="str">
-        <f>VLOOKUP(K110,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K110,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>白色</v>
       </c>
       <c r="P110" t="str">
-        <f>VLOOKUP(K110,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K110,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -14625,15 +14625,15 @@
         <v>224</v>
       </c>
       <c r="N111" t="str">
-        <f>VLOOKUP(K111,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K111,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>中裤</v>
       </c>
       <c r="O111" t="str">
-        <f>VLOOKUP(K111,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K111,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>牛仔蓝 深蓝</v>
       </c>
       <c r="P111" t="str">
-        <f>VLOOKUP(K111,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K111,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>F S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -14678,15 +14678,15 @@
         <v>224</v>
       </c>
       <c r="N112" t="str">
-        <f>VLOOKUP(K112,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K112,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>外套</v>
       </c>
       <c r="O112" t="str">
-        <f>VLOOKUP(K112,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K112,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>军绿</v>
       </c>
       <c r="P112" t="str">
-        <f>VLOOKUP(K112,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K112,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -14731,15 +14731,15 @@
         <v>224</v>
       </c>
       <c r="N113" t="str">
-        <f>VLOOKUP(K113,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K113,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>外套</v>
       </c>
       <c r="O113" t="str">
-        <f>VLOOKUP(K113,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K113,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>米白 橙红 深绿</v>
       </c>
       <c r="P113" t="str">
-        <f>VLOOKUP(K113,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K113,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -14784,15 +14784,15 @@
         <v>224</v>
       </c>
       <c r="N114" t="str">
-        <f>VLOOKUP(K114,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K114,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>半身裙</v>
       </c>
       <c r="O114" t="str">
-        <f>VLOOKUP(K114,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K114,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>土黄 深绿</v>
       </c>
       <c r="P114" t="str">
-        <f>VLOOKUP(K114,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K114,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -14837,15 +14837,15 @@
         <v>224</v>
       </c>
       <c r="N115" t="str">
-        <f>VLOOKUP(K115,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K115,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>毛织上衣</v>
       </c>
       <c r="O115" t="str">
-        <f>VLOOKUP(K115,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K115,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>杏色 咖啡</v>
       </c>
       <c r="P115" t="str">
-        <f>VLOOKUP(K115,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K115,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>F</v>
       </c>
     </row>
@@ -14890,15 +14890,15 @@
         <v>224</v>
       </c>
       <c r="N116" t="str">
-        <f>VLOOKUP(K116,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K116,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>T恤</v>
       </c>
       <c r="O116" t="str">
-        <f>VLOOKUP(K116,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K116,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>白色</v>
       </c>
       <c r="P116" t="str">
-        <f>VLOOKUP(K116,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K116,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>F</v>
       </c>
     </row>
@@ -14943,15 +14943,15 @@
         <v>224</v>
       </c>
       <c r="N117" t="str">
-        <f>VLOOKUP(K117,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K117,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>上衣</v>
       </c>
       <c r="O117" t="str">
-        <f>VLOOKUP(K117,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K117,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>藏蓝</v>
       </c>
       <c r="P117" t="str">
-        <f>VLOOKUP(K117,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K117,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -14996,15 +14996,15 @@
         <v>224</v>
       </c>
       <c r="N118" t="str">
-        <f>VLOOKUP(K118,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K118,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>连衣裙</v>
       </c>
       <c r="O118" t="str">
-        <f>VLOOKUP(K118,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K118,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>藏蓝</v>
       </c>
       <c r="P118" t="str">
-        <f>VLOOKUP(K118,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K118,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -15049,15 +15049,15 @@
         <v>224</v>
       </c>
       <c r="N119" t="str">
-        <f>VLOOKUP(K119,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K119,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>连衣裙</v>
       </c>
       <c r="O119" t="str">
-        <f>VLOOKUP(K119,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K119,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>啡黄</v>
       </c>
       <c r="P119" t="str">
-        <f>VLOOKUP(K119,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K119,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -15102,15 +15102,15 @@
         <v>224</v>
       </c>
       <c r="N120" t="str">
-        <f>VLOOKUP(K120,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K120,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>连衣裙</v>
       </c>
       <c r="O120" t="str">
-        <f>VLOOKUP(K120,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K120,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>印花</v>
       </c>
       <c r="P120" t="str">
-        <f>VLOOKUP(K120,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K120,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -15155,15 +15155,15 @@
         <v>224</v>
       </c>
       <c r="N121" t="str">
-        <f>VLOOKUP(K121,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K121,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>半身裙</v>
       </c>
       <c r="O121" t="str">
-        <f>VLOOKUP(K121,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K121,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>牛仔蓝</v>
       </c>
       <c r="P121" t="str">
-        <f>VLOOKUP(K121,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K121,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -15208,15 +15208,15 @@
         <v>224</v>
       </c>
       <c r="N122" t="str">
-        <f>VLOOKUP(K122,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K122,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>外套</v>
       </c>
       <c r="O122" t="str">
-        <f>VLOOKUP(K122,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K122,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>白色 黑色</v>
       </c>
       <c r="P122" t="str">
-        <f>VLOOKUP(K122,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K122,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -15261,15 +15261,15 @@
         <v>224</v>
       </c>
       <c r="N123" t="str">
-        <f>VLOOKUP(K123,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K123,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>套装</v>
       </c>
       <c r="O123" t="str">
-        <f>VLOOKUP(K123,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K123,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>绿色 黑色</v>
       </c>
       <c r="P123" t="str">
-        <f>VLOOKUP(K123,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K123,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -15314,15 +15314,15 @@
         <v>224</v>
       </c>
       <c r="N124" t="str">
-        <f>VLOOKUP(K124,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K124,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>半身裙</v>
       </c>
       <c r="O124" t="str">
-        <f>VLOOKUP(K124,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K124,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>深蓝</v>
       </c>
       <c r="P124" t="str">
-        <f>VLOOKUP(K124,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K124,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -15367,15 +15367,15 @@
         <v>224</v>
       </c>
       <c r="N125" t="str">
-        <f>VLOOKUP(K125,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K125,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>半身裙</v>
       </c>
       <c r="O125" t="str">
-        <f>VLOOKUP(K125,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K125,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>米白 驼色 灰色</v>
       </c>
       <c r="P125" t="str">
-        <f>VLOOKUP(K125,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K125,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -15420,15 +15420,15 @@
         <v>224</v>
       </c>
       <c r="N126" t="str">
-        <f>VLOOKUP(K126,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K126,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>长裤</v>
       </c>
       <c r="O126" t="str">
-        <f>VLOOKUP(K126,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K126,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>白色</v>
       </c>
       <c r="P126" t="str">
-        <f>VLOOKUP(K126,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K126,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -15473,15 +15473,15 @@
         <v>224</v>
       </c>
       <c r="N127" t="str">
-        <f>VLOOKUP(K127,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K127,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>背心</v>
       </c>
       <c r="O127" t="str">
-        <f>VLOOKUP(K127,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K127,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>白色 绿色</v>
       </c>
       <c r="P127" t="str">
-        <f>VLOOKUP(K127,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K127,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -15526,15 +15526,15 @@
         <v>224</v>
       </c>
       <c r="N128" t="str">
-        <f>VLOOKUP(K128,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K128,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>半身裙</v>
       </c>
       <c r="O128" t="str">
-        <f>VLOOKUP(K128,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K128,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>啡黄 深蓝</v>
       </c>
       <c r="P128" t="str">
-        <f>VLOOKUP(K128,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K128,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -15579,15 +15579,15 @@
         <v>224</v>
       </c>
       <c r="N129" t="str">
-        <f>VLOOKUP(K129,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K129,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>半身裙</v>
       </c>
       <c r="O129" t="str">
-        <f>VLOOKUP(K129,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K129,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>灰色</v>
       </c>
       <c r="P129" t="str">
-        <f>VLOOKUP(K129,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K129,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -15632,15 +15632,15 @@
         <v>224</v>
       </c>
       <c r="N130" t="str">
-        <f>VLOOKUP(K130,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K130,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>半身裙</v>
       </c>
       <c r="O130" t="str">
-        <f>VLOOKUP(K130,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K130,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>紫红 啡黄</v>
       </c>
       <c r="P130" t="str">
-        <f>VLOOKUP(K130,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K130,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -15685,15 +15685,15 @@
         <v>224</v>
       </c>
       <c r="N131" t="str">
-        <f>VLOOKUP(K131,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K131,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>外套</v>
       </c>
       <c r="O131" t="str">
-        <f>VLOOKUP(K131,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K131,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>黑色</v>
       </c>
       <c r="P131" t="str">
-        <f>VLOOKUP(K131,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K131,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -15738,15 +15738,15 @@
         <v>224</v>
       </c>
       <c r="N132" t="str">
-        <f>VLOOKUP(K132,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K132,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>连体裤</v>
       </c>
       <c r="O132" t="str">
-        <f>VLOOKUP(K132,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K132,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>牛仔蓝</v>
       </c>
       <c r="P132" t="str">
-        <f>VLOOKUP(K132,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K132,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -15791,15 +15791,15 @@
         <v>224</v>
       </c>
       <c r="N133" t="str">
-        <f>VLOOKUP(K133,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K133,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>连衣裙</v>
       </c>
       <c r="O133" t="str">
-        <f>VLOOKUP(K133,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K133,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>黑白色</v>
       </c>
       <c r="P133" t="str">
-        <f>VLOOKUP(K133,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K133,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -15844,15 +15844,15 @@
         <v>224</v>
       </c>
       <c r="N134" t="str">
-        <f>VLOOKUP(K134,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K134,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>连衣裙</v>
       </c>
       <c r="O134" t="str">
-        <f>VLOOKUP(K134,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K134,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>深蓝</v>
       </c>
       <c r="P134" t="str">
-        <f>VLOOKUP(K134,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K134,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -15897,15 +15897,15 @@
         <v>224</v>
       </c>
       <c r="N135" t="str">
-        <f>VLOOKUP(K135,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K135,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>半身裙</v>
       </c>
       <c r="O135" t="str">
-        <f>VLOOKUP(K135,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K135,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>黑色 藏蓝</v>
       </c>
       <c r="P135" t="str">
-        <f>VLOOKUP(K135,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K135,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -15950,15 +15950,15 @@
         <v>224</v>
       </c>
       <c r="N136" t="str">
-        <f>VLOOKUP(K136,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K136,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>套装</v>
       </c>
       <c r="O136" t="str">
-        <f>VLOOKUP(K136,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K136,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>白色 蓝色</v>
       </c>
       <c r="P136" t="str">
-        <f>VLOOKUP(K136,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K136,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -16003,15 +16003,15 @@
         <v>224</v>
       </c>
       <c r="N137" t="str">
-        <f>VLOOKUP(K137,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K137,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>套装</v>
       </c>
       <c r="O137" t="str">
-        <f>VLOOKUP(K137,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K137,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>黑色 驼色</v>
       </c>
       <c r="P137" t="str">
-        <f>VLOOKUP(K137,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K137,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -16056,15 +16056,15 @@
         <v>224</v>
       </c>
       <c r="N138" t="str">
-        <f>VLOOKUP(K138,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K138,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>连衣裙</v>
       </c>
       <c r="O138" t="str">
-        <f>VLOOKUP(K138,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K138,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>驼色</v>
       </c>
       <c r="P138" t="str">
-        <f>VLOOKUP(K138,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K138,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>F S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -16109,15 +16109,15 @@
         <v>224</v>
       </c>
       <c r="N139" t="str">
-        <f>VLOOKUP(K139,[1]excel2007!$A$1:$U$116,5,)</f>
+        <f>IFERROR(VLOOKUP(K139,[1]excel2007!$A$1:$U$116,5,), "")</f>
         <v>长裤</v>
       </c>
       <c r="O139" t="str">
-        <f>VLOOKUP(K139,[1]excel2007!$A$1:$U$116,18,)</f>
+        <f>IFERROR(VLOOKUP(K139,[1]excel2007!$A$1:$U$116,18,), "")</f>
         <v>紫红 深蓝</v>
       </c>
       <c r="P139" t="str">
-        <f>VLOOKUP(K139,[1]excel2007!$A$1:$U$116,19,)</f>
+        <f>IFERROR(VLOOKUP(K139,[1]excel2007!$A$1:$U$116,19,), "")</f>
         <v>S/（28-拓谷） M L/（S/29-拓谷） XL/(M/30-拓谷）</v>
       </c>
     </row>
@@ -16158,17 +16158,17 @@
       <c r="M140">
         <v>224</v>
       </c>
-      <c r="N140" t="e">
-        <f>VLOOKUP(K140,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O140" t="e">
-        <f>VLOOKUP(K140,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P140" t="e">
-        <f>VLOOKUP(K140,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N140" t="str">
+        <f>IFERROR(VLOOKUP(K140,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O140" t="str">
+        <f>IFERROR(VLOOKUP(K140,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P140" t="str">
+        <f>IFERROR(VLOOKUP(K140,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -16211,17 +16211,17 @@
       <c r="M141">
         <v>224</v>
       </c>
-      <c r="N141" t="e">
-        <f>VLOOKUP(K141,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O141" t="e">
-        <f>VLOOKUP(K141,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P141" t="e">
-        <f>VLOOKUP(K141,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N141" t="str">
+        <f>IFERROR(VLOOKUP(K141,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O141" t="str">
+        <f>IFERROR(VLOOKUP(K141,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P141" t="str">
+        <f>IFERROR(VLOOKUP(K141,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -16264,17 +16264,17 @@
       <c r="M142">
         <v>224</v>
       </c>
-      <c r="N142" t="e">
-        <f>VLOOKUP(K142,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O142" t="e">
-        <f>VLOOKUP(K142,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P142" t="e">
-        <f>VLOOKUP(K142,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N142" t="str">
+        <f>IFERROR(VLOOKUP(K142,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O142" t="str">
+        <f>IFERROR(VLOOKUP(K142,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P142" t="str">
+        <f>IFERROR(VLOOKUP(K142,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -16317,17 +16317,17 @@
       <c r="M143">
         <v>224</v>
       </c>
-      <c r="N143" t="e">
-        <f>VLOOKUP(K143,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O143" t="e">
-        <f>VLOOKUP(K143,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P143" t="e">
-        <f>VLOOKUP(K143,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N143" t="str">
+        <f>IFERROR(VLOOKUP(K143,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O143" t="str">
+        <f>IFERROR(VLOOKUP(K143,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P143" t="str">
+        <f>IFERROR(VLOOKUP(K143,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -16370,17 +16370,17 @@
       <c r="M144">
         <v>224</v>
       </c>
-      <c r="N144" t="e">
-        <f>VLOOKUP(K144,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O144" t="e">
-        <f>VLOOKUP(K144,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P144" t="e">
-        <f>VLOOKUP(K144,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N144" t="str">
+        <f>IFERROR(VLOOKUP(K144,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O144" t="str">
+        <f>IFERROR(VLOOKUP(K144,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P144" t="str">
+        <f>IFERROR(VLOOKUP(K144,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -16423,17 +16423,17 @@
       <c r="M145">
         <v>224</v>
       </c>
-      <c r="N145" t="e">
-        <f>VLOOKUP(K145,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O145" t="e">
-        <f>VLOOKUP(K145,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P145" t="e">
-        <f>VLOOKUP(K145,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N145" t="str">
+        <f>IFERROR(VLOOKUP(K145,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O145" t="str">
+        <f>IFERROR(VLOOKUP(K145,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P145" t="str">
+        <f>IFERROR(VLOOKUP(K145,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -16476,17 +16476,17 @@
       <c r="M146">
         <v>224</v>
       </c>
-      <c r="N146" t="e">
-        <f>VLOOKUP(K146,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O146" t="e">
-        <f>VLOOKUP(K146,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P146" t="e">
-        <f>VLOOKUP(K146,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N146" t="str">
+        <f>IFERROR(VLOOKUP(K146,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O146" t="str">
+        <f>IFERROR(VLOOKUP(K146,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P146" t="str">
+        <f>IFERROR(VLOOKUP(K146,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -16529,17 +16529,17 @@
       <c r="M147">
         <v>224</v>
       </c>
-      <c r="N147" t="e">
-        <f>VLOOKUP(K147,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O147" t="e">
-        <f>VLOOKUP(K147,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P147" t="e">
-        <f>VLOOKUP(K147,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N147" t="str">
+        <f>IFERROR(VLOOKUP(K147,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O147" t="str">
+        <f>IFERROR(VLOOKUP(K147,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P147" t="str">
+        <f>IFERROR(VLOOKUP(K147,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -16582,17 +16582,17 @@
       <c r="M148">
         <v>224</v>
       </c>
-      <c r="N148" t="e">
-        <f>VLOOKUP(K148,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O148" t="e">
-        <f>VLOOKUP(K148,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P148" t="e">
-        <f>VLOOKUP(K148,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N148" t="str">
+        <f>IFERROR(VLOOKUP(K148,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O148" t="str">
+        <f>IFERROR(VLOOKUP(K148,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P148" t="str">
+        <f>IFERROR(VLOOKUP(K148,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -16635,17 +16635,17 @@
       <c r="M149">
         <v>224</v>
       </c>
-      <c r="N149" t="e">
-        <f>VLOOKUP(K149,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O149" t="e">
-        <f>VLOOKUP(K149,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P149" t="e">
-        <f>VLOOKUP(K149,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N149" t="str">
+        <f>IFERROR(VLOOKUP(K149,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O149" t="str">
+        <f>IFERROR(VLOOKUP(K149,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P149" t="str">
+        <f>IFERROR(VLOOKUP(K149,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -16688,17 +16688,17 @@
       <c r="M150">
         <v>224</v>
       </c>
-      <c r="N150" t="e">
-        <f>VLOOKUP(K150,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O150" t="e">
-        <f>VLOOKUP(K150,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P150" t="e">
-        <f>VLOOKUP(K150,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N150" t="str">
+        <f>IFERROR(VLOOKUP(K150,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O150" t="str">
+        <f>IFERROR(VLOOKUP(K150,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P150" t="str">
+        <f>IFERROR(VLOOKUP(K150,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -16741,17 +16741,17 @@
       <c r="M151">
         <v>224</v>
       </c>
-      <c r="N151" t="e">
-        <f>VLOOKUP(K151,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O151" t="e">
-        <f>VLOOKUP(K151,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P151" t="e">
-        <f>VLOOKUP(K151,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N151" t="str">
+        <f>IFERROR(VLOOKUP(K151,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O151" t="str">
+        <f>IFERROR(VLOOKUP(K151,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P151" t="str">
+        <f>IFERROR(VLOOKUP(K151,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -16794,17 +16794,17 @@
       <c r="M152">
         <v>224</v>
       </c>
-      <c r="N152" t="e">
-        <f>VLOOKUP(K152,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O152" t="e">
-        <f>VLOOKUP(K152,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P152" t="e">
-        <f>VLOOKUP(K152,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N152" t="str">
+        <f>IFERROR(VLOOKUP(K152,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O152" t="str">
+        <f>IFERROR(VLOOKUP(K152,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P152" t="str">
+        <f>IFERROR(VLOOKUP(K152,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -16847,17 +16847,17 @@
       <c r="M153">
         <v>224</v>
       </c>
-      <c r="N153" t="e">
-        <f>VLOOKUP(K153,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O153" t="e">
-        <f>VLOOKUP(K153,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P153" t="e">
-        <f>VLOOKUP(K153,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N153" t="str">
+        <f>IFERROR(VLOOKUP(K153,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O153" t="str">
+        <f>IFERROR(VLOOKUP(K153,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P153" t="str">
+        <f>IFERROR(VLOOKUP(K153,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -16900,17 +16900,17 @@
       <c r="M154">
         <v>224</v>
       </c>
-      <c r="N154" t="e">
-        <f>VLOOKUP(K154,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O154" t="e">
-        <f>VLOOKUP(K154,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P154" t="e">
-        <f>VLOOKUP(K154,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N154" t="str">
+        <f>IFERROR(VLOOKUP(K154,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O154" t="str">
+        <f>IFERROR(VLOOKUP(K154,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P154" t="str">
+        <f>IFERROR(VLOOKUP(K154,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -16953,17 +16953,17 @@
       <c r="M155">
         <v>224</v>
       </c>
-      <c r="N155" t="e">
-        <f>VLOOKUP(K155,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O155" t="e">
-        <f>VLOOKUP(K155,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P155" t="e">
-        <f>VLOOKUP(K155,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N155" t="str">
+        <f>IFERROR(VLOOKUP(K155,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O155" t="str">
+        <f>IFERROR(VLOOKUP(K155,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P155" t="str">
+        <f>IFERROR(VLOOKUP(K155,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -17006,17 +17006,17 @@
       <c r="M156">
         <v>224</v>
       </c>
-      <c r="N156" t="e">
-        <f>VLOOKUP(K156,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O156" t="e">
-        <f>VLOOKUP(K156,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P156" t="e">
-        <f>VLOOKUP(K156,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N156" t="str">
+        <f>IFERROR(VLOOKUP(K156,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O156" t="str">
+        <f>IFERROR(VLOOKUP(K156,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P156" t="str">
+        <f>IFERROR(VLOOKUP(K156,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -17059,17 +17059,17 @@
       <c r="M157">
         <v>224</v>
       </c>
-      <c r="N157" t="e">
-        <f>VLOOKUP(K157,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O157" t="e">
-        <f>VLOOKUP(K157,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P157" t="e">
-        <f>VLOOKUP(K157,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N157" t="str">
+        <f>IFERROR(VLOOKUP(K157,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O157" t="str">
+        <f>IFERROR(VLOOKUP(K157,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P157" t="str">
+        <f>IFERROR(VLOOKUP(K157,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -17112,17 +17112,17 @@
       <c r="M158">
         <v>224</v>
       </c>
-      <c r="N158" t="e">
-        <f>VLOOKUP(K158,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O158" t="e">
-        <f>VLOOKUP(K158,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P158" t="e">
-        <f>VLOOKUP(K158,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N158" t="str">
+        <f>IFERROR(VLOOKUP(K158,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O158" t="str">
+        <f>IFERROR(VLOOKUP(K158,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P158" t="str">
+        <f>IFERROR(VLOOKUP(K158,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -17165,17 +17165,17 @@
       <c r="M159">
         <v>224</v>
       </c>
-      <c r="N159" t="e">
-        <f>VLOOKUP(K159,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O159" t="e">
-        <f>VLOOKUP(K159,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P159" t="e">
-        <f>VLOOKUP(K159,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N159" t="str">
+        <f>IFERROR(VLOOKUP(K159,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O159" t="str">
+        <f>IFERROR(VLOOKUP(K159,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P159" t="str">
+        <f>IFERROR(VLOOKUP(K159,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -17218,17 +17218,17 @@
       <c r="M160">
         <v>224</v>
       </c>
-      <c r="N160" t="e">
-        <f>VLOOKUP(K160,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O160" t="e">
-        <f>VLOOKUP(K160,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P160" t="e">
-        <f>VLOOKUP(K160,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N160" t="str">
+        <f>IFERROR(VLOOKUP(K160,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O160" t="str">
+        <f>IFERROR(VLOOKUP(K160,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P160" t="str">
+        <f>IFERROR(VLOOKUP(K160,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -17271,17 +17271,17 @@
       <c r="M161">
         <v>224</v>
       </c>
-      <c r="N161" t="e">
-        <f>VLOOKUP(K161,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O161" t="e">
-        <f>VLOOKUP(K161,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P161" t="e">
-        <f>VLOOKUP(K161,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N161" t="str">
+        <f>IFERROR(VLOOKUP(K161,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O161" t="str">
+        <f>IFERROR(VLOOKUP(K161,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P161" t="str">
+        <f>IFERROR(VLOOKUP(K161,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -17324,17 +17324,17 @@
       <c r="M162">
         <v>224</v>
       </c>
-      <c r="N162" t="e">
-        <f>VLOOKUP(K162,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O162" t="e">
-        <f>VLOOKUP(K162,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P162" t="e">
-        <f>VLOOKUP(K162,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N162" t="str">
+        <f>IFERROR(VLOOKUP(K162,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O162" t="str">
+        <f>IFERROR(VLOOKUP(K162,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P162" t="str">
+        <f>IFERROR(VLOOKUP(K162,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -17377,17 +17377,17 @@
       <c r="M163">
         <v>224</v>
       </c>
-      <c r="N163" t="e">
-        <f>VLOOKUP(K163,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O163" t="e">
-        <f>VLOOKUP(K163,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P163" t="e">
-        <f>VLOOKUP(K163,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N163" t="str">
+        <f>IFERROR(VLOOKUP(K163,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O163" t="str">
+        <f>IFERROR(VLOOKUP(K163,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P163" t="str">
+        <f>IFERROR(VLOOKUP(K163,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -17430,17 +17430,17 @@
       <c r="M164">
         <v>224</v>
       </c>
-      <c r="N164" t="e">
-        <f>VLOOKUP(K164,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O164" t="e">
-        <f>VLOOKUP(K164,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P164" t="e">
-        <f>VLOOKUP(K164,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N164" t="str">
+        <f>IFERROR(VLOOKUP(K164,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O164" t="str">
+        <f>IFERROR(VLOOKUP(K164,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P164" t="str">
+        <f>IFERROR(VLOOKUP(K164,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -17483,17 +17483,17 @@
       <c r="M165">
         <v>224</v>
       </c>
-      <c r="N165" t="e">
-        <f>VLOOKUP(K165,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O165" t="e">
-        <f>VLOOKUP(K165,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P165" t="e">
-        <f>VLOOKUP(K165,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N165" t="str">
+        <f>IFERROR(VLOOKUP(K165,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O165" t="str">
+        <f>IFERROR(VLOOKUP(K165,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P165" t="str">
+        <f>IFERROR(VLOOKUP(K165,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -17536,17 +17536,17 @@
       <c r="M166">
         <v>224</v>
       </c>
-      <c r="N166" t="e">
-        <f>VLOOKUP(K166,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O166" t="e">
-        <f>VLOOKUP(K166,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P166" t="e">
-        <f>VLOOKUP(K166,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N166" t="str">
+        <f>IFERROR(VLOOKUP(K166,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O166" t="str">
+        <f>IFERROR(VLOOKUP(K166,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P166" t="str">
+        <f>IFERROR(VLOOKUP(K166,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -17586,17 +17586,17 @@
       <c r="M167">
         <v>224</v>
       </c>
-      <c r="N167" t="e">
-        <f>VLOOKUP(K167,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O167" t="e">
-        <f>VLOOKUP(K167,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P167" t="e">
-        <f>VLOOKUP(K167,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N167" t="str">
+        <f>IFERROR(VLOOKUP(K167,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O167" t="str">
+        <f>IFERROR(VLOOKUP(K167,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P167" t="str">
+        <f>IFERROR(VLOOKUP(K167,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -17639,17 +17639,17 @@
       <c r="M168">
         <v>224</v>
       </c>
-      <c r="N168" t="e">
-        <f>VLOOKUP(K168,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O168" t="e">
-        <f>VLOOKUP(K168,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P168" t="e">
-        <f>VLOOKUP(K168,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N168" t="str">
+        <f>IFERROR(VLOOKUP(K168,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O168" t="str">
+        <f>IFERROR(VLOOKUP(K168,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P168" t="str">
+        <f>IFERROR(VLOOKUP(K168,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -17692,17 +17692,17 @@
       <c r="M169">
         <v>224</v>
       </c>
-      <c r="N169" t="e">
-        <f>VLOOKUP(K169,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O169" t="e">
-        <f>VLOOKUP(K169,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P169" t="e">
-        <f>VLOOKUP(K169,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N169" t="str">
+        <f>IFERROR(VLOOKUP(K169,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O169" t="str">
+        <f>IFERROR(VLOOKUP(K169,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P169" t="str">
+        <f>IFERROR(VLOOKUP(K169,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -17745,17 +17745,17 @@
       <c r="M170">
         <v>224</v>
       </c>
-      <c r="N170" t="e">
-        <f>VLOOKUP(K170,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O170" t="e">
-        <f>VLOOKUP(K170,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P170" t="e">
-        <f>VLOOKUP(K170,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N170" t="str">
+        <f>IFERROR(VLOOKUP(K170,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O170" t="str">
+        <f>IFERROR(VLOOKUP(K170,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P170" t="str">
+        <f>IFERROR(VLOOKUP(K170,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -17798,17 +17798,17 @@
       <c r="M171">
         <v>224</v>
       </c>
-      <c r="N171" t="e">
-        <f>VLOOKUP(K171,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O171" t="e">
-        <f>VLOOKUP(K171,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P171" t="e">
-        <f>VLOOKUP(K171,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N171" t="str">
+        <f>IFERROR(VLOOKUP(K171,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O171" t="str">
+        <f>IFERROR(VLOOKUP(K171,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P171" t="str">
+        <f>IFERROR(VLOOKUP(K171,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -17851,17 +17851,17 @@
       <c r="M172">
         <v>224</v>
       </c>
-      <c r="N172" t="e">
-        <f>VLOOKUP(K172,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O172" t="e">
-        <f>VLOOKUP(K172,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P172" t="e">
-        <f>VLOOKUP(K172,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N172" t="str">
+        <f>IFERROR(VLOOKUP(K172,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O172" t="str">
+        <f>IFERROR(VLOOKUP(K172,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P172" t="str">
+        <f>IFERROR(VLOOKUP(K172,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -17904,17 +17904,17 @@
       <c r="M173">
         <v>224</v>
       </c>
-      <c r="N173" t="e">
-        <f>VLOOKUP(K173,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O173" t="e">
-        <f>VLOOKUP(K173,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P173" t="e">
-        <f>VLOOKUP(K173,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N173" t="str">
+        <f>IFERROR(VLOOKUP(K173,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O173" t="str">
+        <f>IFERROR(VLOOKUP(K173,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P173" t="str">
+        <f>IFERROR(VLOOKUP(K173,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -17957,17 +17957,17 @@
       <c r="M174">
         <v>224</v>
       </c>
-      <c r="N174" t="e">
-        <f>VLOOKUP(K174,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O174" t="e">
-        <f>VLOOKUP(K174,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P174" t="e">
-        <f>VLOOKUP(K174,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N174" t="str">
+        <f>IFERROR(VLOOKUP(K174,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O174" t="str">
+        <f>IFERROR(VLOOKUP(K174,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P174" t="str">
+        <f>IFERROR(VLOOKUP(K174,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -18010,17 +18010,17 @@
       <c r="M175">
         <v>224</v>
       </c>
-      <c r="N175" t="e">
-        <f>VLOOKUP(K175,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O175" t="e">
-        <f>VLOOKUP(K175,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P175" t="e">
-        <f>VLOOKUP(K175,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N175" t="str">
+        <f>IFERROR(VLOOKUP(K175,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O175" t="str">
+        <f>IFERROR(VLOOKUP(K175,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P175" t="str">
+        <f>IFERROR(VLOOKUP(K175,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -18063,17 +18063,17 @@
       <c r="M176">
         <v>224</v>
       </c>
-      <c r="N176" t="e">
-        <f>VLOOKUP(K176,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O176" t="e">
-        <f>VLOOKUP(K176,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P176" t="e">
-        <f>VLOOKUP(K176,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N176" t="str">
+        <f>IFERROR(VLOOKUP(K176,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O176" t="str">
+        <f>IFERROR(VLOOKUP(K176,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P176" t="str">
+        <f>IFERROR(VLOOKUP(K176,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -18116,17 +18116,17 @@
       <c r="M177">
         <v>224</v>
       </c>
-      <c r="N177" t="e">
-        <f>VLOOKUP(K177,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O177" t="e">
-        <f>VLOOKUP(K177,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P177" t="e">
-        <f>VLOOKUP(K177,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N177" t="str">
+        <f>IFERROR(VLOOKUP(K177,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O177" t="str">
+        <f>IFERROR(VLOOKUP(K177,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P177" t="str">
+        <f>IFERROR(VLOOKUP(K177,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -18169,17 +18169,17 @@
       <c r="M178">
         <v>224</v>
       </c>
-      <c r="N178" t="e">
-        <f>VLOOKUP(K178,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O178" t="e">
-        <f>VLOOKUP(K178,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P178" t="e">
-        <f>VLOOKUP(K178,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N178" t="str">
+        <f>IFERROR(VLOOKUP(K178,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O178" t="str">
+        <f>IFERROR(VLOOKUP(K178,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P178" t="str">
+        <f>IFERROR(VLOOKUP(K178,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -18222,17 +18222,17 @@
       <c r="M179">
         <v>224</v>
       </c>
-      <c r="N179" t="e">
-        <f>VLOOKUP(K179,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O179" t="e">
-        <f>VLOOKUP(K179,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P179" t="e">
-        <f>VLOOKUP(K179,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N179" t="str">
+        <f>IFERROR(VLOOKUP(K179,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O179" t="str">
+        <f>IFERROR(VLOOKUP(K179,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P179" t="str">
+        <f>IFERROR(VLOOKUP(K179,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -18275,17 +18275,17 @@
       <c r="M180">
         <v>224</v>
       </c>
-      <c r="N180" t="e">
-        <f>VLOOKUP(K180,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O180" t="e">
-        <f>VLOOKUP(K180,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P180" t="e">
-        <f>VLOOKUP(K180,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N180" t="str">
+        <f>IFERROR(VLOOKUP(K180,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O180" t="str">
+        <f>IFERROR(VLOOKUP(K180,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P180" t="str">
+        <f>IFERROR(VLOOKUP(K180,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -18328,17 +18328,17 @@
       <c r="M181">
         <v>224</v>
       </c>
-      <c r="N181" t="e">
-        <f>VLOOKUP(K181,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O181" t="e">
-        <f>VLOOKUP(K181,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P181" t="e">
-        <f>VLOOKUP(K181,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N181" t="str">
+        <f>IFERROR(VLOOKUP(K181,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O181" t="str">
+        <f>IFERROR(VLOOKUP(K181,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P181" t="str">
+        <f>IFERROR(VLOOKUP(K181,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -18381,17 +18381,17 @@
       <c r="M182">
         <v>224</v>
       </c>
-      <c r="N182" t="e">
-        <f>VLOOKUP(K182,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O182" t="e">
-        <f>VLOOKUP(K182,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P182" t="e">
-        <f>VLOOKUP(K182,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N182" t="str">
+        <f>IFERROR(VLOOKUP(K182,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O182" t="str">
+        <f>IFERROR(VLOOKUP(K182,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P182" t="str">
+        <f>IFERROR(VLOOKUP(K182,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -18434,17 +18434,17 @@
       <c r="M183">
         <v>224</v>
       </c>
-      <c r="N183" t="e">
-        <f>VLOOKUP(K183,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O183" t="e">
-        <f>VLOOKUP(K183,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P183" t="e">
-        <f>VLOOKUP(K183,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N183" t="str">
+        <f>IFERROR(VLOOKUP(K183,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O183" t="str">
+        <f>IFERROR(VLOOKUP(K183,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P183" t="str">
+        <f>IFERROR(VLOOKUP(K183,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -18487,17 +18487,17 @@
       <c r="M184">
         <v>224</v>
       </c>
-      <c r="N184" t="e">
-        <f>VLOOKUP(K184,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O184" t="e">
-        <f>VLOOKUP(K184,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P184" t="e">
-        <f>VLOOKUP(K184,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N184" t="str">
+        <f>IFERROR(VLOOKUP(K184,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O184" t="str">
+        <f>IFERROR(VLOOKUP(K184,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P184" t="str">
+        <f>IFERROR(VLOOKUP(K184,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -18540,17 +18540,17 @@
       <c r="M185">
         <v>224</v>
       </c>
-      <c r="N185" t="e">
-        <f>VLOOKUP(K185,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O185" t="e">
-        <f>VLOOKUP(K185,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P185" t="e">
-        <f>VLOOKUP(K185,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N185" t="str">
+        <f>IFERROR(VLOOKUP(K185,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O185" t="str">
+        <f>IFERROR(VLOOKUP(K185,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P185" t="str">
+        <f>IFERROR(VLOOKUP(K185,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -18593,17 +18593,17 @@
       <c r="M186">
         <v>224</v>
       </c>
-      <c r="N186" t="e">
-        <f>VLOOKUP(K186,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O186" t="e">
-        <f>VLOOKUP(K186,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P186" t="e">
-        <f>VLOOKUP(K186,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N186" t="str">
+        <f>IFERROR(VLOOKUP(K186,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O186" t="str">
+        <f>IFERROR(VLOOKUP(K186,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P186" t="str">
+        <f>IFERROR(VLOOKUP(K186,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -18646,17 +18646,17 @@
       <c r="M187">
         <v>224</v>
       </c>
-      <c r="N187" t="e">
-        <f>VLOOKUP(K187,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O187" t="e">
-        <f>VLOOKUP(K187,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P187" t="e">
-        <f>VLOOKUP(K187,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N187" t="str">
+        <f>IFERROR(VLOOKUP(K187,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O187" t="str">
+        <f>IFERROR(VLOOKUP(K187,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P187" t="str">
+        <f>IFERROR(VLOOKUP(K187,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -18699,17 +18699,17 @@
       <c r="M188">
         <v>224</v>
       </c>
-      <c r="N188" t="e">
-        <f>VLOOKUP(K188,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O188" t="e">
-        <f>VLOOKUP(K188,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P188" t="e">
-        <f>VLOOKUP(K188,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N188" t="str">
+        <f>IFERROR(VLOOKUP(K188,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O188" t="str">
+        <f>IFERROR(VLOOKUP(K188,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P188" t="str">
+        <f>IFERROR(VLOOKUP(K188,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -18752,17 +18752,17 @@
       <c r="M189">
         <v>224</v>
       </c>
-      <c r="N189" t="e">
-        <f>VLOOKUP(K189,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O189" t="e">
-        <f>VLOOKUP(K189,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P189" t="e">
-        <f>VLOOKUP(K189,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N189" t="str">
+        <f>IFERROR(VLOOKUP(K189,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O189" t="str">
+        <f>IFERROR(VLOOKUP(K189,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P189" t="str">
+        <f>IFERROR(VLOOKUP(K189,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -18805,17 +18805,17 @@
       <c r="M190">
         <v>224</v>
       </c>
-      <c r="N190" t="e">
-        <f>VLOOKUP(K190,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O190" t="e">
-        <f>VLOOKUP(K190,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P190" t="e">
-        <f>VLOOKUP(K190,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N190" t="str">
+        <f>IFERROR(VLOOKUP(K190,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O190" t="str">
+        <f>IFERROR(VLOOKUP(K190,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P190" t="str">
+        <f>IFERROR(VLOOKUP(K190,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -18858,17 +18858,17 @@
       <c r="M191">
         <v>224</v>
       </c>
-      <c r="N191" t="e">
-        <f>VLOOKUP(K191,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O191" t="e">
-        <f>VLOOKUP(K191,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P191" t="e">
-        <f>VLOOKUP(K191,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N191" t="str">
+        <f>IFERROR(VLOOKUP(K191,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O191" t="str">
+        <f>IFERROR(VLOOKUP(K191,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P191" t="str">
+        <f>IFERROR(VLOOKUP(K191,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -18911,17 +18911,17 @@
       <c r="M192">
         <v>224</v>
       </c>
-      <c r="N192" t="e">
-        <f>VLOOKUP(K192,[1]excel2007!$A$1:$U$116,5,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O192" t="e">
-        <f>VLOOKUP(K192,[1]excel2007!$A$1:$U$116,18,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P192" t="e">
-        <f>VLOOKUP(K192,[1]excel2007!$A$1:$U$116,19,)</f>
-        <v>#N/A</v>
+      <c r="N192" t="str">
+        <f>IFERROR(VLOOKUP(K192,[1]excel2007!$A$1:$U$116,5,), "")</f>
+        <v/>
+      </c>
+      <c r="O192" t="str">
+        <f>IFERROR(VLOOKUP(K192,[1]excel2007!$A$1:$U$116,18,), "")</f>
+        <v/>
+      </c>
+      <c r="P192" t="str">
+        <f>IFERROR(VLOOKUP(K192,[1]excel2007!$A$1:$U$116,19,), "")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
